--- a/design/db_prototype.xlsx
+++ b/design/db_prototype.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorzfeel/Google Drive/edu/pm/architecture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorzfeel/Projects/DressMe/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADA8E5-E867-334A-BDDC-3574FC872F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1313A3A-B6ED-BC4C-9129-00075C697AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{D10EAC0B-AF0B-9647-B717-72F934F8EC57}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>users</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>arms_length (cm)</t>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
 </sst>
 </file>
@@ -220,15 +223,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,12 +312,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -323,6 +345,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -640,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A2D97-F0ED-C84A-8220-636AB50EBE55}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="177" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="159" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,6 +787,9 @@
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,12 +858,12 @@
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -863,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>5</v>
@@ -873,7 +901,7 @@
       <c r="G34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -884,73 +912,79 @@
       <c r="G35" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H35" s="15"/>
       <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="3" t="s">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H38" s="11" t="s">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H39" s="4" t="s">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="4" t="s">
+    <row r="41" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="13" t="s">
+    <row r="42" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H42" s="12" t="s">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H44" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H45" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="4" t="s">
         <v>39</v>
       </c>
     </row>
